--- a/biology/Botanique/Sacoglottis_gabonensis/Sacoglottis_gabonensis.xlsx
+++ b/biology/Botanique/Sacoglottis_gabonensis/Sacoglottis_gabonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sacoglottis gabonensis est une espèce de plantes à fleurs de la famille des Humiriaceae, qui a pour nom vernaculaire bidou en français. C'est un arbre dont l'aire de répartition s’étend du Sénégal et de la Gambie jusqu’en Centrafrique et en Angola[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sacoglottis gabonensis est une espèce de plantes à fleurs de la famille des Humiriaceae, qui a pour nom vernaculaire bidou en français. C'est un arbre dont l'aire de répartition s’étend du Sénégal et de la Gambie jusqu’en Centrafrique et en Angola.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stature
-C'est un arbre de taille moyenne à assez grande, pouvant atteindre 40 m de haut. Son fût est généralement tordu et noueux, avec un diamètre de 180-450 cm, dépourvu de branches sur une hauteur de 20 m. La cime est très étalée et ramifiée, de forme arrondie et ouverte[1].
+C'est un arbre de taille moyenne à assez grande, pouvant atteindre 40 m de haut. Son fût est généralement tordu et noueux, avec un diamètre de 180-450 cm, dépourvu de branches sur une hauteur de 20 m. La cime est très étalée et ramifiée, de forme arrondie et ouverte.
 Écorce et bois
-L’écorce externe est plutôt lisse chez les jeunes arbres, de couleur brune à brun foncé chez les spécimens âgés, et écailleuse[1].
+L’écorce externe est plutôt lisse chez les jeunes arbres, de couleur brune à brun foncé chez les spécimens âgés, et écailleuse.
 Feuilles
-Les feuilles sont alternes et simples[1].
+Les feuilles sont alternes et simples.
 Fleurs et fruits
-L’inflorescence fait jusqu’à 5 cm de long, et comporte des fleurs bisexuées, régulières, avec des pétales d’environ 7 mm de long, de couleur blanche. Le fruit est une drupe de 3-4 cm sur 2,5-3,5 cm, de couleur verte à jaune. Il contient de 1 à 3 graines[1].</t>
+L’inflorescence fait jusqu’à 5 cm de long, et comporte des fleurs bisexuées, régulières, avec des pétales d’environ 7 mm de long, de couleur blanche. Le fruit est une drupe de 3-4 cm sur 2,5-3,5 cm, de couleur verte à jaune. Il contient de 1 à 3 graines.</t>
         </is>
       </c>
     </row>
@@ -548,9 +562,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant.
 </t>
         </is>
       </c>
@@ -579,14 +595,16 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Usages médicinaux
-L’écorce est utilisée pour traiter la fièvre, la gonorrhée, le diabète, entre autres[1].
+L’écorce est utilisée pour traiter la fièvre, la gonorrhée, le diabète, entre autres.
 Usages alimentaires et culinaires
-Le fruit, au goût sucré, est comestible. Il permet la fabrication d’une boisson alcoolisée. Au Cameroun, les graines sont rôties puis consommées par les pygmées[1].
+Le fruit, au goût sucré, est comestible. Il permet la fabrication d’une boisson alcoolisée. Au Cameroun, les graines sont rôties puis consommées par les pygmées.
 Usages domestiques, artisanaux et industriels
-Le bois est couramment utilisé au niveau local, notamment pour la construction hydraulique, la charpenterie, la construction navale, l’ébénisterie[1].</t>
+Le bois est couramment utilisé au niveau local, notamment pour la construction hydraulique, la charpenterie, la construction navale, l’ébénisterie.</t>
         </is>
       </c>
     </row>
